--- a/biology/Zoologie/Cuthbert_Collingwood_(biologiste)/Cuthbert_Collingwood_(biologiste).xlsx
+++ b/biology/Zoologie/Cuthbert_Collingwood_(biologiste)/Cuthbert_Collingwood_(biologiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cuthbert Collingwood  est un chirurgien et zoologiste marin. Il est né le 25 décembre 1826 à Greenwich[1] et meurt le 20 octobre 1908[2]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cuthbert Collingwood  est un chirurgien et zoologiste marin. Il est né le 25 décembre 1826 à Greenwich et meurt le 20 octobre 1908
 L'espèce Chromodoris colingwoodi lui rend hommage.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Liste partielle de publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Cuthbert Collingwood, « Note on the existence of gigantic sea-anemones in the China Sea, containing within them quasi-parasitic fish », Annals And Magazine of Natural History, 4e série, vol. 1,‎ 1868, p. 31-33 (lire en ligne)
 (en) Cuthbert Collingwood, Rambles of a naturalist on the shores and waters of the China Sea: being observations in natural history during a voyage to China, Formosa, Borneo, Singapore, etc., made in Her Majesty's vessels in 1866 and 1867, London, J. Murray, 1868
@@ -546,16 +560,90 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Taxon nommé en l'honneur de Cuthbert Collingwood
-Espèce Goniobranchus colingwoodi (Rudman, 1987), gastéropode de la famille des Chromodorididae.
-Taxons valides décrits par Cuthbert Collingwood
-Vers plats marins
+          <t>Taxon nommé en l'honneur de Cuthbert Collingwood</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Espèce Goniobranchus colingwoodi (Rudman, 1987), gastéropode de la famille des Chromodorididae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cuthbert_Collingwood_(biologiste)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuthbert_Collingwood_(biologiste)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Taxons valides décrits par Cuthbert Collingwood</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Vers plats marins
 espèce Pseudobiceros hancockanus (Collingwood, 1876)
 genre Acanthozoon Collingwood, 1876
 espèce Acanthozoon alderi (Collingwood, 1876)
-espèce Acanthozoon allmani (Collingwood, 1876)
-Taxons obsolètes
-Le nom d'espèce Chromodoris colingwoodi (Rudman, 1987 a été remplacé par Goniobranchus colingwoodi (Rudman, 1987).
+espèce Acanthozoon allmani (Collingwood, 1876)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cuthbert_Collingwood_(biologiste)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuthbert_Collingwood_(biologiste)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Taxons obsolètes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom d'espèce Chromodoris colingwoodi (Rudman, 1987 a été remplacé par Goniobranchus colingwoodi (Rudman, 1987).
 </t>
         </is>
       </c>
